--- a/trunk/XNA/LevelsDesign.xlsx
+++ b/trunk/XNA/LevelsDesign.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="86">
   <si>
     <t>Zombies</t>
   </si>
@@ -56,9 +56,6 @@
     <t>1,2,3</t>
   </si>
   <si>
-    <t>0.5-1</t>
-  </si>
-  <si>
     <t>3-4</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>1,2,3,4</t>
   </si>
   <si>
-    <t>0.1-0.3</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -95,9 +89,6 @@
     <t>2,4</t>
   </si>
   <si>
-    <t>0.3</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -122,9 +113,6 @@
     <t>3,4,5,6,7</t>
   </si>
   <si>
-    <t>0.3-1</t>
-  </si>
-  <si>
     <t>6 - final wave</t>
   </si>
   <si>
@@ -158,18 +146,9 @@
     <t>7,8,9,10,11</t>
   </si>
   <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.2-0.8</t>
-  </si>
-  <si>
     <t>7,8,9,10,11,12</t>
   </si>
   <si>
-    <t>0.5</t>
-  </si>
-  <si>
     <t>12,13,14</t>
   </si>
   <si>
@@ -188,9 +167,6 @@
     <t>7,8,9,10,11,12,13,14,15</t>
   </si>
   <si>
-    <t>0.3-0.5</t>
-  </si>
-  <si>
     <t>9 - final wave</t>
   </si>
   <si>
@@ -230,15 +206,9 @@
     <t>1-2</t>
   </si>
   <si>
-    <t>0.3-0.8</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
-    <t>1-1.2</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -248,48 +218,18 @@
     <t>5-6</t>
   </si>
   <si>
-    <t>0.1-1.5</t>
-  </si>
-  <si>
     <t>The death roar…</t>
   </si>
   <si>
     <t>House</t>
   </si>
   <si>
-    <t>0.2-0.5</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.3-0.7</t>
-  </si>
-  <si>
-    <t>0.5-0.7</t>
-  </si>
-  <si>
     <t>0.8</t>
   </si>
   <si>
-    <t>0.1-0.8</t>
-  </si>
-  <si>
     <t>Ocean</t>
   </si>
   <si>
-    <t>0.2-0.4</t>
-  </si>
-  <si>
-    <t>0.2-0.3</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.1-0.4</t>
-  </si>
-  <si>
     <t>30-40</t>
   </si>
   <si>
@@ -297,6 +237,51 @@
   </si>
   <si>
     <t>KING</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>0.8-1.6</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>1.2-4</t>
+  </si>
+  <si>
+    <t>0.8-3.2</t>
+  </si>
+  <si>
+    <t>1.2-2</t>
+  </si>
+  <si>
+    <t>1.2-3.2</t>
+  </si>
+  <si>
+    <t>0.8-5</t>
+  </si>
+  <si>
+    <t>0.8-2</t>
+  </si>
+  <si>
+    <t>1.2-2.8</t>
+  </si>
+  <si>
+    <t>2-2.8</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>1-1.6</t>
   </si>
 </sst>
 </file>
@@ -349,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -359,6 +344,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I62"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51:I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,12 +649,12 @@
     <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -679,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>4</v>
@@ -691,24 +678,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
@@ -718,13 +705,18 @@
         <v>0</v>
       </c>
       <c r="H3" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I3" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>20.3</v>
+      </c>
+      <c r="J3" s="6">
+        <f>ROUND(I3*1.5, 1)</f>
+        <v>30.5</v>
+      </c>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C4" s="3">
         <v>2</v>
       </c>
@@ -735,1163 +727,1473 @@
         <v>8</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="4">
-        <v>0.3</v>
+      <c r="G4" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="H4" s="4">
         <v>0</v>
       </c>
       <c r="I4" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J4" s="6">
+        <f t="shared" ref="J4:J62" si="0">ROUND(I4*1.5, 1)</f>
+        <v>15.3</v>
+      </c>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" s="3">
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="H5" s="4">
         <v>0</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" s="3">
+        <v>15.3</v>
+      </c>
+      <c r="J5" s="6">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="4">
+        <v>15</v>
+      </c>
+      <c r="I8" s="3">
+        <v>20.3</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="0"/>
+        <v>30.5</v>
+      </c>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" si="0"/>
+        <v>15.3</v>
+      </c>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>15.3</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>20.3</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="0"/>
+        <v>30.5</v>
+      </c>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>20.3</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="0"/>
+        <v>30.5</v>
+      </c>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="4">
+        <v>15</v>
+      </c>
+      <c r="I15" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="0"/>
+        <v>45.8</v>
+      </c>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>20.3</v>
+      </c>
+      <c r="J16" s="6">
+        <f t="shared" si="0"/>
+        <v>30.5</v>
+      </c>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>25.5</v>
+      </c>
+      <c r="J17" s="6">
+        <f t="shared" si="0"/>
+        <v>38.299999999999997</v>
+      </c>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>15.3</v>
+      </c>
+      <c r="J18" s="6">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>20.3</v>
+      </c>
+      <c r="J19" s="6">
+        <f t="shared" si="0"/>
+        <v>30.5</v>
+      </c>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="E20" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J20" s="6">
+        <f t="shared" si="0"/>
+        <v>15.3</v>
+      </c>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>20.3</v>
+      </c>
+      <c r="J21" s="6">
+        <f t="shared" si="0"/>
+        <v>30.5</v>
+      </c>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>25.5</v>
+      </c>
+      <c r="J22" s="6">
+        <f t="shared" si="0"/>
+        <v>38.299999999999997</v>
+      </c>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="D25" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="E25" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="4">
+        <v>15</v>
+      </c>
+      <c r="I25" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="J25" s="6">
+        <f t="shared" si="0"/>
+        <v>45.8</v>
+      </c>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>20.3</v>
+      </c>
+      <c r="J26" s="6">
+        <f t="shared" si="0"/>
+        <v>30.5</v>
+      </c>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>20.3</v>
+      </c>
+      <c r="J27" s="6">
+        <f t="shared" si="0"/>
+        <v>30.5</v>
+      </c>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C28" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
+        <v>25.5</v>
+      </c>
+      <c r="J28" s="6">
+        <f t="shared" si="0"/>
+        <v>38.299999999999997</v>
+      </c>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="J29" s="6">
+        <f t="shared" si="0"/>
+        <v>45.8</v>
+      </c>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="E30" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>20.3</v>
+      </c>
+      <c r="J30" s="6">
+        <f t="shared" si="0"/>
+        <v>30.5</v>
+      </c>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C31" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
+        <v>35.6</v>
+      </c>
+      <c r="J31" s="6">
+        <f t="shared" si="0"/>
+        <v>53.4</v>
+      </c>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>25.5</v>
+      </c>
+      <c r="J32" s="6">
+        <f t="shared" si="0"/>
+        <v>38.299999999999997</v>
+      </c>
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C33" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>25.5</v>
+      </c>
+      <c r="J33" s="6">
+        <f t="shared" si="0"/>
+        <v>38.299999999999997</v>
+      </c>
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
+        <v>25.5</v>
+      </c>
+      <c r="J34" s="6">
+        <f t="shared" si="0"/>
+        <v>38.299999999999997</v>
+      </c>
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="J35" s="6">
+        <f t="shared" si="0"/>
+        <v>45.8</v>
+      </c>
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C36" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+      <c r="J36" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0</v>
+      </c>
+      <c r="J37" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C38" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H34" s="3" t="s">
+      <c r="D38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I34" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="E38" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="4">
+        <v>15</v>
+      </c>
+      <c r="I38" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="J38" s="6">
+        <f t="shared" si="0"/>
+        <v>45.8</v>
+      </c>
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C39" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C39" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I39" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H39" s="4">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3">
+        <v>20.3</v>
+      </c>
+      <c r="J39" s="6">
+        <f t="shared" si="0"/>
+        <v>30.5</v>
+      </c>
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C40" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0</v>
+      </c>
+      <c r="I40" s="3">
+        <v>20.3</v>
+      </c>
+      <c r="J40" s="6">
+        <f t="shared" si="0"/>
+        <v>30.5</v>
+      </c>
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C41" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>20.3</v>
+      </c>
+      <c r="J41" s="6">
+        <f t="shared" si="0"/>
+        <v>30.5</v>
+      </c>
+      <c r="K41" s="5"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C42" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>20.3</v>
+      </c>
+      <c r="J42" s="6">
+        <f t="shared" si="0"/>
+        <v>30.5</v>
+      </c>
+      <c r="K42" s="5"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C43" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>20.3</v>
+      </c>
+      <c r="J43" s="6">
+        <f t="shared" si="0"/>
+        <v>30.5</v>
+      </c>
+      <c r="K43" s="5"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C44" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>20.3</v>
+      </c>
+      <c r="J44" s="6">
+        <f t="shared" si="0"/>
+        <v>30.5</v>
+      </c>
+      <c r="K44" s="5"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C45" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>25.5</v>
+      </c>
+      <c r="J45" s="6">
+        <f t="shared" si="0"/>
+        <v>38.299999999999997</v>
+      </c>
+      <c r="K45" s="5"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C46" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H46" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>25.5</v>
+      </c>
+      <c r="J46" s="6">
+        <f t="shared" si="0"/>
+        <v>38.299999999999997</v>
+      </c>
+      <c r="K46" s="5"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>25.5</v>
+      </c>
+      <c r="J47" s="6">
+        <f t="shared" si="0"/>
+        <v>38.299999999999997</v>
+      </c>
+      <c r="K47" s="5"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C48" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="J48" s="6">
+        <f t="shared" si="0"/>
+        <v>45.8</v>
+      </c>
+      <c r="K48" s="5"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C49" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="5"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" t="s">
+        <v>67</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0</v>
+      </c>
+      <c r="J50" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="5"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C51" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C47" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H47" s="3" t="s">
+      <c r="D51" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C48" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C49" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>90</v>
-      </c>
-      <c r="B50" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C51" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="E51" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="4">
+        <v>15</v>
+      </c>
+      <c r="I51" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="J51" s="6">
+        <f t="shared" si="0"/>
+        <v>45.8</v>
+      </c>
+      <c r="K51" s="5"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C52" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C52" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="H52" s="4">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>20.3</v>
+      </c>
+      <c r="J52" s="6">
+        <f t="shared" si="0"/>
+        <v>30.5</v>
+      </c>
+      <c r="K52" s="5"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C53" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0</v>
+      </c>
+      <c r="I53" s="3">
+        <v>20.3</v>
+      </c>
+      <c r="J53" s="6">
+        <f t="shared" si="0"/>
+        <v>30.5</v>
+      </c>
+      <c r="K53" s="5"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C54" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="H54" s="4">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>20.3</v>
+      </c>
+      <c r="J54" s="6">
+        <f t="shared" si="0"/>
+        <v>30.5</v>
+      </c>
+      <c r="K54" s="5"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C55" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I55" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H55" s="4">
+        <v>0</v>
+      </c>
+      <c r="I55" s="3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J55" s="6">
+        <f t="shared" si="0"/>
+        <v>15.3</v>
+      </c>
+      <c r="K55" s="5"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C56" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C56" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="D56" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" s="4">
+        <v>0</v>
+      </c>
+      <c r="I56" s="3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J56" s="6">
+        <f t="shared" si="0"/>
+        <v>15.3</v>
+      </c>
+      <c r="K56" s="5"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C57" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J57" s="6">
+        <f t="shared" si="0"/>
+        <v>15.3</v>
+      </c>
+      <c r="K57" s="5"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C58" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H56" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C57" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C58" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="D58" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J58" s="6">
+        <f t="shared" si="0"/>
+        <v>15.3</v>
+      </c>
+      <c r="K58" s="5"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C59" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>15.3</v>
+      </c>
+      <c r="J59" s="6">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="K59" s="5"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C60" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E60" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G60" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G60" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
+        <v>15.3</v>
+      </c>
+      <c r="J60" s="6">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="K60" s="5"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C61" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G61" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E61" s="3" t="s">
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>20.3</v>
+      </c>
+      <c r="J61" s="6">
+        <f t="shared" si="0"/>
+        <v>30.5</v>
+      </c>
+      <c r="K61" s="5"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C62" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G61" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="G62" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K62" s="5"/>
     </row>
   </sheetData>
   <sortState ref="A2:P20">
@@ -1902,7 +2204,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="I6 C8:D8 H8:I8 G8" numberStoredAsText="1"/>
+    <ignoredError sqref="C8:D8 G8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/trunk/XNA/LevelsDesign.xlsx
+++ b/trunk/XNA/LevelsDesign.xlsx
@@ -47,9 +47,6 @@
     <t>End delay</t>
   </si>
   <si>
-    <t>Zombies are coming…</t>
-  </si>
-  <si>
     <t>1,2</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>Brain… brain…</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -125,15 +119,6 @@
     <t>Background</t>
   </si>
   <si>
-    <t>Hospital</t>
-  </si>
-  <si>
-    <t>Who takes my cheese…</t>
-  </si>
-  <si>
-    <t>Forest</t>
-  </si>
-  <si>
     <t>2-3</t>
   </si>
   <si>
@@ -176,9 +161,6 @@
     <t>15-20</t>
   </si>
   <si>
-    <t>Zombilize…</t>
-  </si>
-  <si>
     <t>Plants</t>
   </si>
   <si>
@@ -218,18 +200,9 @@
     <t>5-6</t>
   </si>
   <si>
-    <t>The death roar…</t>
-  </si>
-  <si>
-    <t>House</t>
-  </si>
-  <si>
     <t>0.8</t>
   </si>
   <si>
-    <t>Ocean</t>
-  </si>
-  <si>
     <t>30-40</t>
   </si>
   <si>
@@ -282,6 +255,33 @@
   </si>
   <si>
     <t>1-1.6</t>
+  </si>
+  <si>
+    <t>Zombies are coming</t>
+  </si>
+  <si>
+    <t>Brain. . . brain. . .</t>
+  </si>
+  <si>
+    <t>Images/Controls/Hospital</t>
+  </si>
+  <si>
+    <t>Images/Controls/Forest</t>
+  </si>
+  <si>
+    <t>Images/Controls/House</t>
+  </si>
+  <si>
+    <t>Images/Controls/Ocean</t>
+  </si>
+  <si>
+    <t>The death roar. . .</t>
+  </si>
+  <si>
+    <t>Zombilize</t>
+  </si>
+  <si>
+    <t>Who takes my cheese. . .</t>
   </si>
 </sst>
 </file>
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51:I61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,7 +654,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>4</v>
@@ -680,10 +680,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -695,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
@@ -724,11 +724,11 @@
         <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H4" s="4">
         <v>0</v>
@@ -747,14 +747,14 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="H5" s="4">
         <v>0</v>
@@ -770,17 +770,17 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H6" s="4">
         <v>0</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -816,17 +816,17 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8" s="4">
         <v>15</v>
@@ -842,17 +842,17 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H9" s="4">
         <v>0</v>
@@ -868,17 +868,17 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H10" s="4">
         <v>0</v>
@@ -894,17 +894,17 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H11" s="4">
         <v>0</v>
@@ -920,17 +920,17 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H12" s="4">
         <v>0</v>
@@ -946,17 +946,17 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H13" s="4">
         <v>0</v>
@@ -972,10 +972,10 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -992,17 +992,17 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15" s="4">
         <v>15</v>
@@ -1018,17 +1018,17 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H16" s="4">
         <v>0</v>
@@ -1044,17 +1044,17 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H17" s="4">
         <v>0</v>
@@ -1070,17 +1070,17 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="H18" s="4">
         <v>0</v>
@@ -1096,17 +1096,17 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="H19" s="4">
         <v>0</v>
@@ -1122,17 +1122,17 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H20" s="4">
         <v>0</v>
@@ -1148,16 +1148,16 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -1173,17 +1173,17 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1199,17 +1199,17 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -1225,10 +1225,10 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1241,17 +1241,17 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C25" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H25" s="4">
         <v>15</v>
@@ -1267,17 +1267,17 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C26" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H26" s="4">
         <v>0</v>
@@ -1293,17 +1293,17 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H27" s="4">
         <v>0</v>
@@ -1319,17 +1319,17 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C28" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="H28" s="4">
         <v>0</v>
@@ -1345,17 +1345,17 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="H29" s="4">
         <v>0</v>
@@ -1371,17 +1371,17 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H30" s="4">
         <v>0</v>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C31" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="H31" s="3">
         <v>0</v>
@@ -1422,17 +1422,17 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1448,17 +1448,17 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C33" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
@@ -1474,16 +1474,16 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C34" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="H34" s="3">
         <v>0</v>
@@ -1499,16 +1499,16 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
@@ -1524,16 +1524,16 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C36" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H36" s="3">
         <v>0</v>
@@ -1549,10 +1549,10 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="I37" s="3">
         <v>0</v>
@@ -1565,17 +1565,17 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C38" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H38" s="4">
         <v>15</v>
@@ -1591,17 +1591,17 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C39" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H39" s="4">
         <v>0</v>
@@ -1617,17 +1617,17 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C40" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H40" s="4">
         <v>0</v>
@@ -1643,17 +1643,17 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C41" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H41" s="4">
         <v>0</v>
@@ -1669,17 +1669,17 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C42" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="H42" s="4">
         <v>0</v>
@@ -1695,17 +1695,17 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C43" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="H43" s="4">
         <v>0</v>
@@ -1721,16 +1721,16 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C44" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -1746,17 +1746,17 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C45" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -1772,17 +1772,17 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C46" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -1798,16 +1798,16 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C47" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -1823,16 +1823,16 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C48" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -1848,16 +1848,16 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C49" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
@@ -1873,10 +1873,10 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="I50" s="3">
         <v>0</v>
@@ -1889,17 +1889,17 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C51" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H51" s="4">
         <v>15</v>
@@ -1915,17 +1915,17 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C52" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H52" s="4">
         <v>0</v>
@@ -1941,17 +1941,17 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C53" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H53" s="4">
         <v>0</v>
@@ -1967,17 +1967,17 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C54" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H54" s="4">
         <v>0</v>
@@ -1993,17 +1993,17 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C55" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H55" s="4">
         <v>0</v>
@@ -2019,17 +2019,17 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C56" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H56" s="4">
         <v>0</v>
@@ -2045,16 +2045,16 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C57" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -2070,17 +2070,17 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C58" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -2096,17 +2096,17 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C59" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -2122,16 +2122,16 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C60" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E60" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G60" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="H60" s="3">
         <v>0</v>
@@ -2147,16 +2147,16 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C61" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2172,16 +2172,16 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C62" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>

--- a/trunk/XNA/LevelsDesign.xlsx
+++ b/trunk/XNA/LevelsDesign.xlsx
@@ -263,18 +263,6 @@
     <t>Brain. . . brain. . .</t>
   </si>
   <si>
-    <t>Images/Controls/Hospital</t>
-  </si>
-  <si>
-    <t>Images/Controls/Forest</t>
-  </si>
-  <si>
-    <t>Images/Controls/House</t>
-  </si>
-  <si>
-    <t>Images/Controls/Ocean</t>
-  </si>
-  <si>
     <t>The death roar. . .</t>
   </si>
   <si>
@@ -282,6 +270,18 @@
   </si>
   <si>
     <t>Who takes my cheese. . .</t>
+  </si>
+  <si>
+    <t>Images/Controls/Background_Hospital</t>
+  </si>
+  <si>
+    <t>Images/Controls/Background_Forest</t>
+  </si>
+  <si>
+    <t>Images/Controls/Background_House</t>
+  </si>
+  <si>
+    <t>Images/Controls/Background_Ocean</t>
   </si>
 </sst>
 </file>
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,7 +683,7 @@
         <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -799,7 +799,7 @@
         <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -972,10 +972,10 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -1225,10 +1225,10 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1549,10 +1549,10 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I37" s="3">
         <v>0</v>
@@ -1876,7 +1876,7 @@
         <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I50" s="3">
         <v>0</v>

--- a/trunk/XNA/LevelsDesign.xlsx
+++ b/trunk/XNA/LevelsDesign.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="86">
   <si>
     <t>Zombies</t>
   </si>
@@ -161,9 +161,6 @@
     <t>15-20</t>
   </si>
   <si>
-    <t>Plants</t>
-  </si>
-  <si>
     <t>9,10,13</t>
   </si>
   <si>
@@ -272,16 +269,19 @@
     <t>Who takes my cheese. . .</t>
   </si>
   <si>
-    <t>Images/Controls/Background_Hospital</t>
-  </si>
-  <si>
-    <t>Images/Controls/Background_Forest</t>
-  </si>
-  <si>
-    <t>Images/Controls/Background_House</t>
-  </si>
-  <si>
-    <t>Images/Controls/Background_Ocean</t>
+    <t>Number of Plants</t>
+  </si>
+  <si>
+    <t>Hospital</t>
+  </si>
+  <si>
+    <t>Forest</t>
+  </si>
+  <si>
+    <t>House</t>
+  </si>
+  <si>
+    <t>Ocean</t>
   </si>
 </sst>
 </file>
@@ -628,18 +628,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
@@ -657,16 +657,16 @@
         <v>30</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>4</v>
@@ -680,27 +680,29 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C3" s="3">
+      <c r="C3" s="4"/>
+      <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F3" s="4">
         <v>1</v>
       </c>
-      <c r="F3" s="4"/>
       <c r="G3" s="4">
         <v>0</v>
       </c>
@@ -717,18 +719,18 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C4" s="3">
+      <c r="C4" s="4"/>
+      <c r="D4" s="3">
         <v>2</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H4" s="4">
         <v>0</v>
@@ -743,18 +745,18 @@
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="3">
+      <c r="C5" s="4"/>
+      <c r="D5" s="3">
         <v>3</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H5" s="4">
         <v>0</v>
@@ -769,18 +771,18 @@
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H6" s="4">
         <v>0</v>
@@ -796,12 +798,14 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="H7" s="4"/>
@@ -815,16 +819,16 @@
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="G8" s="4" t="s">
         <v>13</v>
       </c>
@@ -841,18 +845,18 @@
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" s="4">
         <v>0</v>
@@ -867,18 +871,18 @@
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H10" s="4">
         <v>0</v>
@@ -893,18 +897,18 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H11" s="4">
         <v>0</v>
@@ -919,18 +923,18 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H12" s="4">
         <v>0</v>
@@ -945,18 +949,18 @@
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H13" s="4">
         <v>0</v>
@@ -972,12 +976,14 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="H14" s="4"/>
@@ -991,16 +997,16 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="G15" s="4" t="s">
         <v>13</v>
       </c>
@@ -1017,18 +1023,18 @@
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H16" s="4">
         <v>0</v>
@@ -1043,16 +1049,16 @@
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
         <v>20</v>
       </c>
@@ -1069,18 +1075,18 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4"/>
+      <c r="D18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H18" s="4">
         <v>0</v>
@@ -1095,18 +1101,18 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H19" s="4">
         <v>0</v>
@@ -1121,16 +1127,16 @@
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
         <v>15</v>
       </c>
@@ -1147,17 +1153,17 @@
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -1172,18 +1178,18 @@
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1198,18 +1204,18 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4"/>
+      <c r="D23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -1225,11 +1231,14 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
         <v>83</v>
       </c>
+      <c r="C24" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1240,16 +1249,16 @@
       <c r="K24" s="5"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4"/>
+      <c r="D25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="G25" s="4" t="s">
         <v>13</v>
       </c>
@@ -1266,18 +1275,18 @@
       <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="4" t="s">
+      <c r="C26" s="4"/>
+      <c r="D26" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H26" s="4">
         <v>0</v>
@@ -1292,16 +1301,16 @@
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4"/>
+      <c r="D27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
         <v>20</v>
       </c>
@@ -1318,18 +1327,18 @@
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4"/>
+      <c r="D28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="4"/>
+      <c r="F28" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="G28" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H28" s="4">
         <v>0</v>
@@ -1344,42 +1353,42 @@
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4"/>
+      <c r="D29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="F29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="J29" s="6">
+        <f t="shared" si="0"/>
+        <v>45.8</v>
+      </c>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C30" s="4"/>
+      <c r="D30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H29" s="4">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>30.5</v>
-      </c>
-      <c r="J29" s="6">
-        <f t="shared" si="0"/>
-        <v>45.8</v>
-      </c>
-      <c r="K29" s="5"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" s="4"/>
       <c r="G30" s="4" t="s">
         <v>15</v>
       </c>
@@ -1396,17 +1405,17 @@
       <c r="K30" s="5"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>49</v>
+      <c r="F31" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H31" s="3">
         <v>0</v>
@@ -1421,18 +1430,18 @@
       <c r="K31" s="5"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="4"/>
+      <c r="D32" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" s="4"/>
+      <c r="F32" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="G32" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1447,18 +1456,18 @@
       <c r="K32" s="5"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="4"/>
+      <c r="D33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F33" s="4"/>
       <c r="G33" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
@@ -1473,17 +1482,17 @@
       <c r="K33" s="5"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>52</v>
+      <c r="F34" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H34" s="3">
         <v>0</v>
@@ -1498,14 +1507,14 @@
       <c r="K34" s="5"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C35" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="D35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>54</v>
+      <c r="F35" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>20</v>
@@ -1523,17 +1532,17 @@
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>52</v>
+      <c r="F36" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H36" s="3">
         <v>0</v>
@@ -1549,11 +1558,14 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s">
         <v>84</v>
       </c>
+      <c r="C37" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="I37" s="3">
         <v>0</v>
       </c>
@@ -1564,16 +1576,16 @@
       <c r="K37" s="5"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="4"/>
+      <c r="D38" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="4"/>
+      <c r="F38" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="G38" s="4" t="s">
         <v>13</v>
       </c>
@@ -1590,16 +1602,16 @@
       <c r="K38" s="5"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="4" t="s">
+      <c r="C39" s="4"/>
+      <c r="D39" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F39" s="4"/>
       <c r="G39" s="4" t="s">
         <v>14</v>
       </c>
@@ -1616,16 +1628,16 @@
       <c r="K39" s="5"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="4"/>
+      <c r="D40" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="E40" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="F40" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F40" s="4"/>
       <c r="G40" s="4" t="s">
         <v>20</v>
       </c>
@@ -1642,18 +1654,18 @@
       <c r="K40" s="5"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="4"/>
+      <c r="D41" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F41" s="4"/>
+      <c r="F41" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="G41" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H41" s="4">
         <v>0</v>
@@ -1668,18 +1680,18 @@
       <c r="K41" s="5"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="4"/>
+      <c r="D42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="E42" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F42" s="4"/>
+      <c r="F42" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="G42" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H42" s="4">
         <v>0</v>
@@ -1694,18 +1706,18 @@
       <c r="K42" s="5"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="4"/>
+      <c r="D43" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="E43" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F43" s="4"/>
+      <c r="F43" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="G43" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H43" s="4">
         <v>0</v>
@@ -1720,17 +1732,17 @@
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>49</v>
+      <c r="F44" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -1745,16 +1757,16 @@
       <c r="K44" s="5"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="4"/>
+      <c r="D45" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F45" s="4"/>
+      <c r="F45" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="G45" s="4" t="s">
         <v>15</v>
       </c>
@@ -1771,18 +1783,18 @@
       <c r="K45" s="5"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="4"/>
+      <c r="D46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F46" s="4"/>
       <c r="G46" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -1797,17 +1809,17 @@
       <c r="K46" s="5"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>52</v>
+      <c r="F47" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -1822,42 +1834,42 @@
       <c r="K47" s="5"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C48" s="3" t="s">
+      <c r="D48" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="J48" s="6">
+        <f t="shared" si="0"/>
+        <v>45.8</v>
+      </c>
+      <c r="K48" s="5"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D49" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>30.5</v>
-      </c>
-      <c r="J48" s="6">
-        <f t="shared" si="0"/>
-        <v>45.8</v>
-      </c>
-      <c r="K48" s="5"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C49" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>52</v>
+      <c r="F49" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
@@ -1873,11 +1885,14 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B50" t="s">
         <v>85</v>
       </c>
+      <c r="C50" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="I50" s="3">
         <v>0</v>
       </c>
@@ -1888,16 +1903,16 @@
       <c r="K50" s="5"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="4"/>
+      <c r="D51" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="E51" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" s="4"/>
+      <c r="F51" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="G51" s="4" t="s">
         <v>13</v>
       </c>
@@ -1914,18 +1929,18 @@
       <c r="K51" s="5"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C52" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" s="4" t="s">
+      <c r="C52" s="4"/>
+      <c r="D52" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E52" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="4"/>
       <c r="G52" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H52" s="4">
         <v>0</v>
@@ -1940,16 +1955,16 @@
       <c r="K52" s="5"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="4"/>
+      <c r="D53" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="E53" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="F53" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F53" s="4"/>
       <c r="G53" s="4" t="s">
         <v>20</v>
       </c>
@@ -1966,18 +1981,18 @@
       <c r="K53" s="5"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="4"/>
+      <c r="D54" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="E54" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F54" s="4"/>
+      <c r="F54" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="G54" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H54" s="4">
         <v>0</v>
@@ -1992,18 +2007,18 @@
       <c r="K54" s="5"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="4"/>
+      <c r="D55" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="E55" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F55" s="4"/>
+      <c r="F55" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="G55" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H55" s="4">
         <v>0</v>
@@ -2018,16 +2033,16 @@
       <c r="K55" s="5"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="4"/>
+      <c r="D56" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="E56" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E56" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F56" s="4"/>
+      <c r="F56" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="G56" s="4" t="s">
         <v>14</v>
       </c>
@@ -2044,17 +2059,17 @@
       <c r="K56" s="5"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="E57" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>49</v>
+      <c r="F57" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -2069,16 +2084,16 @@
       <c r="K57" s="5"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="4"/>
+      <c r="D58" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="E58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F58" s="4"/>
+      <c r="F58" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="G58" s="4" t="s">
         <v>14</v>
       </c>
@@ -2095,18 +2110,18 @@
       <c r="K58" s="5"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="4"/>
+      <c r="D59" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F59" s="4"/>
       <c r="G59" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -2121,17 +2136,17 @@
       <c r="K59" s="5"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C60" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="E60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>52</v>
+      <c r="F60" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H60" s="3">
         <v>0</v>
@@ -2146,17 +2161,17 @@
       <c r="K60" s="5"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C61" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="D61" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>54</v>
+      <c r="F61" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2171,17 +2186,17 @@
       <c r="K61" s="5"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C62" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="D62" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="G62" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -2196,7 +2211,7 @@
       <c r="K62" s="5"/>
     </row>
   </sheetData>
-  <sortState ref="A2:P20">
+  <sortState ref="A2:Q20">
     <sortCondition ref="K2:K20"/>
     <sortCondition descending="1" ref="J2:J20"/>
     <sortCondition descending="1" ref="G2:G20"/>
@@ -2204,7 +2219,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C8:D8 G8" numberStoredAsText="1"/>
+    <ignoredError sqref="D8:E8 G8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>